--- a/writing/fig/Hbayes_experiment_result.xlsx
+++ b/writing/fig/Hbayes_experiment_result.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhexuanxu/Documents/GitHub/hierarchical_bayesian/writings/fig/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhexuanxu/Documents/GitHub/aaai-2019_HBAYES/writing/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA5825F5-F998-124E-8ACA-DEDE3EB53465}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F88BC273-9471-E549-BC2A-3984B28116BD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41440" yWindow="5420" windowWidth="28100" windowHeight="17440" xr2:uid="{7D0F4819-6D81-CA46-98EF-D8B1237CC229}"/>
+    <workbookView xWindow="1180" yWindow="1900" windowWidth="35680" windowHeight="19400" xr2:uid="{7D0F4819-6D81-CA46-98EF-D8B1237CC229}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">工作表1!$G$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">工作表1!$G$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">工作表1!$H$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">工作表1!$H$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">工作表1!$H$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">工作表1!$H$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">工作表1!$H$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">工作表1!$H$8:$K$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">工作表1!$H$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">工作表1!$G$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">工作表1!$G$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">工作表1!$G$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">工作表1!$G$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">工作表1!$G$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">工作表1!$G$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">工作表1!$H$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">工作表1!$H$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">工作表1!$G$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">工作表1!$G$38</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">工作表1!$H$38:$K$38</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">工作表1!$H$39:$K$39</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">工作表1!$H$40:$K$40</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">工作表1!$H$41:$K$41</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">工作表1!$H$42:$K$42</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">工作表1!$H$43:$K$43</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">工作表1!$H$44:$K$44</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">工作表1!$G$39</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">工作表1!$G$40</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">工作表1!$G$41</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">工作表1!$G$42</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">工作表1!$G$43</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">工作表1!$G$44</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">工作表1!$H$36:$K$36</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">工作表1!$H$37:$K$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -147,6 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -218,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +235,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,34 +1042,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1880,37 +1858,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2727,37 +2674,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2866,19 +2782,19 @@
             <c:numRef>
               <c:f>工作表1!$H$4:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.3099999999999993E-2</c:v>
+                  <c:v>8.310541642399534E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8599999999999993E-2</c:v>
+                  <c:v>9.8603944315545242E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10489999999999999</c:v>
+                  <c:v>0.10491753755024329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5100000000000004E-2</c:v>
+                  <c:v>9.1473506373828908E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2937,19 +2853,19 @@
             <c:numRef>
               <c:f>工作表1!$H$5:$K$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.1300000000000006E-2</c:v>
+                  <c:v>9.132773109243697E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10879999999999999</c:v>
+                  <c:v>0.10885934142114387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1075</c:v>
+                  <c:v>0.10714860192102456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4100000000000003E-2</c:v>
+                  <c:v>9.3933633121414159E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,19 +2924,19 @@
             <c:numRef>
               <c:f>工作表1!$H$6:$K$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.0300000000000005E-2</c:v>
+                  <c:v>8.7108093126385788E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1084</c:v>
+                  <c:v>0.10696635311143271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1084</c:v>
+                  <c:v>0.10772755871579401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4600000000000004E-2</c:v>
+                  <c:v>9.4571659548505188E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,19 +2995,19 @@
             <c:numRef>
               <c:f>工作表1!$H$7:$K$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.1600000000000001E-2</c:v>
+                  <c:v>9.159145388223032E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1089</c:v>
+                  <c:v>0.10901152916810493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10829999999999999</c:v>
+                  <c:v>0.10837995859213251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4899999999999998E-2</c:v>
+                  <c:v>9.4772166514737161E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,19 +3066,19 @@
             <c:numRef>
               <c:f>工作表1!$H$8:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.3100000000000002E-2</c:v>
+                  <c:v>9.3127310061601645E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10970000000000001</c:v>
+                  <c:v>0.11007498295841855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10920000000000001</c:v>
+                  <c:v>0.10929475624743959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6100000000000005E-2</c:v>
+                  <c:v>9.6659590868662909E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,19 +3137,19 @@
             <c:numRef>
               <c:f>工作表1!$H$9:$K$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.6300000000000002E-2</c:v>
+                  <c:v>8.6320296465222351E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1041</c:v>
+                  <c:v>0.10408887141171845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10589999999999999</c:v>
+                  <c:v>0.10580895666908738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4200000000000006E-2</c:v>
+                  <c:v>9.3373002754820938E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3294,19 +3210,19 @@
             <c:numRef>
               <c:f>工作表1!$H$10:$K$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.1399999999999995E-2</c:v>
+                  <c:v>8.8254665203073554E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1109</c:v>
+                  <c:v>0.1085753007784855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10979999999999999</c:v>
+                  <c:v>0.10798978562421185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7100000000000006E-2</c:v>
+                  <c:v>9.5323583622903774E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3367,19 +3283,19 @@
             <c:numRef>
               <c:f>工作表1!$H$11:$K$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.6199999999999994E-2</c:v>
+                  <c:v>9.7052734375000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1159</c:v>
+                  <c:v>0.11608565051020409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11070000000000001</c:v>
+                  <c:v>0.1123390068081698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8500000000000004E-2</c:v>
+                  <c:v>9.8517804240487949E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3561,7 +3477,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3605,37 +3521,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4034,13 +3919,13 @@
                   <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3099999999999998E-2</c:v>
+                  <c:v>7.3400000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.2700000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.21E-2</c:v>
+                  <c:v>5.2400000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,7 +3996,7 @@
                   <c:v>6.2300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1700000000000003E-2</c:v>
+                  <c:v>5.1200000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,13 +4063,13 @@
                   <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4300000000000005E-2</c:v>
+                  <c:v>7.3300000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3100000000000003E-2</c:v>
+                  <c:v>6.2100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2699999999999997E-2</c:v>
+                  <c:v>5.1700000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,10 +4136,10 @@
                   <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6799999999999993E-2</c:v>
+                  <c:v>7.6899999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3500000000000001E-2</c:v>
+                  <c:v>6.4500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.3400000000000003E-2</c:v>
@@ -4687,10 +4572,10 @@
                   <c:v>0.2157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4168</c:v>
+                  <c:v>0.40679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6139</c:v>
+                  <c:v>0.59389999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4752,16 +4637,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1169</c:v>
+                  <c:v>0.1069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21490000000000001</c:v>
+                  <c:v>0.2039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4199</c:v>
+                  <c:v>0.40189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61429999999999996</c:v>
+                  <c:v>0.60429999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,7 +4717,7 @@
                   <c:v>0.42080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61680000000000001</c:v>
+                  <c:v>0.60680000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5038,16 +4923,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1172</c:v>
+                  <c:v>0.1072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21929999999999999</c:v>
+                  <c:v>0.20930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42370000000000002</c:v>
+                  <c:v>0.41370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62019999999999997</c:v>
+                  <c:v>0.61019999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5111,16 +4996,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.12280000000000001</c:v>
+                  <c:v>0.1258</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.23669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43169999999999997</c:v>
+                  <c:v>0.43490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63290000000000002</c:v>
+                  <c:v>0.63519999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5328,37 +5213,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5757,13 +5611,13 @@
                   <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3099999999999998E-2</c:v>
+                  <c:v>7.3400000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.2700000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.21E-2</c:v>
+                  <c:v>5.2400000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5834,7 +5688,7 @@
                   <c:v>6.2300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1700000000000003E-2</c:v>
+                  <c:v>5.1200000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5901,13 +5755,13 @@
                   <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4300000000000005E-2</c:v>
+                  <c:v>7.3300000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3100000000000003E-2</c:v>
+                  <c:v>6.2100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2699999999999997E-2</c:v>
+                  <c:v>5.1700000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5974,10 +5828,10 @@
                   <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6799999999999993E-2</c:v>
+                  <c:v>7.6899999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3500000000000001E-2</c:v>
+                  <c:v>6.4500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.3400000000000003E-2</c:v>
@@ -6191,37 +6045,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10618,8 +10441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0B6C1F-DD20-7C49-BF06-48E60A9A7B26}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10711,17 +10534,21 @@
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>8.3099999999999993E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.10489999999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <v>9.5100000000000004E-2</v>
+      <c r="H4" s="5">
+        <f>2*(H26*H37)/(H26+H37)</f>
+        <v>8.310541642399534E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <f>2*(I26*I37)/(I26+I37)</f>
+        <v>9.8603944315545242E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:K4" si="0">2*(J26*J37)/(J26+J37)</f>
+        <v>0.10491753755024329</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>9.1473506373828908E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -10744,17 +10571,21 @@
       <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.1075</v>
-      </c>
-      <c r="K5" s="1">
-        <v>9.4100000000000003E-2</v>
+      <c r="H5" s="5">
+        <f>2*(H27*H38)/(H27+H38)</f>
+        <v>9.132773109243697E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:K5" si="1">2*(I27*I38)/(I27+I38)</f>
+        <v>0.10885934142114387</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.10714860192102456</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>9.3933633121414159E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10777,17 +10608,21 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.1084</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.1084</v>
-      </c>
-      <c r="K6" s="1">
-        <v>9.4600000000000004E-2</v>
+      <c r="H6" s="5">
+        <f>2*(H28*H39)/(H28+H39)</f>
+        <v>8.7108093126385788E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6:K6" si="2">2*(I28*I39)/(I28+I39)</f>
+        <v>0.10696635311143271</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10772755871579401</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="2"/>
+        <v>9.4571659548505188E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -10810,17 +10645,21 @@
       <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1">
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.1089</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.10829999999999999</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9.4899999999999998E-2</v>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7:K11" si="3">2*(H29*H40)/(H29+H40)</f>
+        <v>9.159145388223032E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10901152916810493</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10837995859213251</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="3"/>
+        <v>9.4772166514737161E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -10843,17 +10682,21 @@
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
-        <v>9.3100000000000002E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.10970000000000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="K8" s="1">
-        <v>9.6100000000000005E-2</v>
+      <c r="H8" s="5">
+        <f t="shared" si="3"/>
+        <v>9.3127310061601645E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11007498295841855</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10929475624743959</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="3"/>
+        <v>9.6659590868662909E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -10876,17 +10719,21 @@
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.1041</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.10589999999999999</v>
-      </c>
-      <c r="K9" s="1">
-        <v>9.4200000000000006E-2</v>
+      <c r="H9" s="5">
+        <f t="shared" si="3"/>
+        <v>8.6320296465222351E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10408887141171845</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10580895666908738</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="3"/>
+        <v>9.3373002754820938E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10909,17 +10756,21 @@
       <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1">
-        <v>9.1399999999999995E-2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.1109</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.10979999999999999</v>
-      </c>
-      <c r="K10" s="1">
-        <v>9.7100000000000006E-2</v>
+      <c r="H10" s="5">
+        <f t="shared" si="3"/>
+        <v>8.8254665203073554E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1085753007784855</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10798978562421185</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="3"/>
+        <v>9.5323583622903774E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -10942,17 +10793,21 @@
       <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="1">
-        <v>9.6199999999999994E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.1159</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.11070000000000001</v>
-      </c>
-      <c r="K11" s="1">
-        <v>9.8500000000000004E-2</v>
+      <c r="H11" s="5">
+        <f t="shared" si="3"/>
+        <v>9.7052734375000005E-2</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11608565051020409</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1123390068081698</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="3"/>
+        <v>9.8517804240487949E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -11501,13 +11356,13 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>7.3099999999999998E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="J30" s="1">
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="K30" s="1">
-        <v>5.21E-2</v>
+        <v>5.2400000000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -11540,7 +11395,7 @@
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="K31" s="1">
-        <v>5.1700000000000003E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -11567,13 +11422,13 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>7.4300000000000005E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>6.3100000000000003E-2</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="K32" s="1">
-        <v>5.2699999999999997E-2</v>
+        <v>5.1700000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -11600,10 +11455,10 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>7.6799999999999993E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="J33" s="1">
-        <v>6.3500000000000001E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="K33" s="1">
         <v>5.3400000000000003E-2</v>
@@ -11732,10 +11587,10 @@
         <v>0.2157</v>
       </c>
       <c r="J38" s="1">
-        <v>0.4168</v>
+        <v>0.40679999999999999</v>
       </c>
       <c r="K38" s="1">
-        <v>0.6139</v>
+        <v>0.59389999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -11759,16 +11614,16 @@
         <v>3</v>
       </c>
       <c r="H39" s="1">
-        <v>0.1169</v>
+        <v>0.1069</v>
       </c>
       <c r="I39" s="1">
-        <v>0.21490000000000001</v>
+        <v>0.2039</v>
       </c>
       <c r="J39" s="1">
-        <v>0.4199</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="K39" s="1">
-        <v>0.61429999999999996</v>
+        <v>0.60429999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -11801,7 +11656,7 @@
         <v>0.42080000000000001</v>
       </c>
       <c r="K40" s="1">
-        <v>0.61680000000000001</v>
+        <v>0.60680000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -11891,16 +11746,16 @@
         <v>7</v>
       </c>
       <c r="H43" s="1">
-        <v>0.1172</v>
+        <v>0.1072</v>
       </c>
       <c r="I43" s="1">
-        <v>0.21929999999999999</v>
+        <v>0.20930000000000001</v>
       </c>
       <c r="J43" s="1">
-        <v>0.42370000000000002</v>
+        <v>0.41370000000000001</v>
       </c>
       <c r="K43" s="1">
-        <v>0.62019999999999997</v>
+        <v>0.61019999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -11924,16 +11779,16 @@
         <v>8</v>
       </c>
       <c r="H44" s="1">
-        <v>0.12280000000000001</v>
+        <v>0.1258</v>
       </c>
       <c r="I44" s="1">
         <v>0.23669999999999999</v>
       </c>
       <c r="J44" s="1">
-        <v>0.43169999999999997</v>
+        <v>0.43490000000000001</v>
       </c>
       <c r="K44" s="1">
-        <v>0.63290000000000002</v>
+        <v>0.63519999999999999</v>
       </c>
     </row>
   </sheetData>
